--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C25D632-04D9-4CD1-BB5F-9394376B3A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5543AA-9246-4F6A-AC56-0892090191B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3005" yWindow="-10890" windowWidth="19380" windowHeight="10260" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>https://calendly.com/mdmccarthy/navigatorappt</t>
   </si>
@@ -160,6 +160,13 @@
 Shea has experience researching diagnostic decisions in psychotherapy, health disparities and program evaluation. She is currently interested in researching factors that contribute to mental health treatment initiation and continuation, substance use, and crisis intervention and prevention in adolescents and emerging adults. 
 Shea practices self-care by reading, exercising, and spending time with her friends and family. When she’s not busy with work and school, Shea loves to spend time outdoors by going on hikes with her partner and the family dog. 
 Pronouns: She/her/hers </t>
+  </si>
+  <si>
+    <t>Patrik is a student in the Counseling Psychology doctoral program at UAlbany. He received his master's degree (MA) in Clinical &amp; Counseling Psychology from William Paterson University in 2023. He received his bachelor's degree (BS) in Psychology from Clarkson University in 2021.
+In addition to his education, Patrik has spent many years answering crisis calls and texts for 988 or answering calls for a different local suicide prevention hotline. He has also spent time as a therapist in training, primarily serving LGBTQ+ folks.
+His primary research interests focus on mental health issues faced by LGBTQ+ folks, with a further focus on transgender and gender-nonconforming people. Patrik has taken part in research seeking novel ways to reduce gender dysphoria, such as investigating the impacts that tabletop role-playing games, like Dungeons and Dragons, has on transgender and gender-nonconforming players. He is also interested in understanding the unique needs that LGBTQ+ folks have when seeking mental health services.
+In his free time, Patrik enjoys reading, spending time in nature, playing board games, and cooking. 
+Pronouns: He/him/his</t>
   </si>
 </sst>
 </file>
@@ -553,7 +560,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,7 +592,7 @@
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -613,7 +620,7 @@
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -641,7 +648,6 @@
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -653,7 +659,7 @@
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -667,7 +673,9 @@
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -679,7 +687,7 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
     </row>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5543AA-9246-4F6A-AC56-0892090191B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ACE892-A0CC-4447-80B1-D969E639BAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3005" yWindow="-10890" windowWidth="19380" windowHeight="10260" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>https://calendly.com/mdmccarthy/navigatorappt</t>
   </si>
@@ -167,6 +167,12 @@
 His primary research interests focus on mental health issues faced by LGBTQ+ folks, with a further focus on transgender and gender-nonconforming people. Patrik has taken part in research seeking novel ways to reduce gender dysphoria, such as investigating the impacts that tabletop role-playing games, like Dungeons and Dragons, has on transgender and gender-nonconforming players. He is also interested in understanding the unique needs that LGBTQ+ folks have when seeking mental health services.
 In his free time, Patrik enjoys reading, spending time in nature, playing board games, and cooking. 
 Pronouns: He/him/his</t>
+  </si>
+  <si>
+    <t>Choose a Navigator</t>
+  </si>
+  <si>
+    <t>Choose a navigator to view their bio and schedule an appointment!</t>
   </si>
 </sst>
 </file>
@@ -217,11 +223,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -557,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,7 +611,7 @@
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -634,7 +639,7 @@
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -673,7 +678,7 @@
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -689,6 +694,14 @@
       </c>
       <c r="D9" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ACE892-A0CC-4447-80B1-D969E639BAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3E9A93-3845-4760-9D61-A3FE35EFB8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3005" yWindow="-10890" windowWidth="19380" windowHeight="10260" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>https://calendly.com/mdmccarthy/navigatorappt</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Choose a navigator to view their bio and schedule an appointment!</t>
+  </si>
+  <si>
+    <t>https://ewokozwok.github.io/ACCESSLandingPage/ACCESS_logo.png</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,6 +703,9 @@
       <c r="A10" t="s">
         <v>35</v>
       </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3E9A93-3845-4760-9D61-A3FE35EFB8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11EA0E-CA32-4F82-839D-ACC496ED55CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3005" yWindow="-10890" windowWidth="19380" windowHeight="10260" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
@@ -175,7 +175,7 @@
     <t>Choose a navigator to view their bio and schedule an appointment!</t>
   </si>
   <si>
-    <t>https://ewokozwok.github.io/ACCESSLandingPage/ACCESS_logo.png</t>
+    <t>https://ewokozwok.github.io/ACCESSLandingPage/ACCESS_Logo.png</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11EA0E-CA32-4F82-839D-ACC496ED55CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE16AC7-D0A5-43E8-96D2-78817F464764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3005" yWindow="-10890" windowWidth="19380" windowHeight="10260" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE16AC7-D0A5-43E8-96D2-78817F464764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7C096A-31F9-4956-B2CA-1A464E3A1694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3005" yWindow="-10890" windowWidth="19380" windowHeight="10260" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>https://calendly.com/mdmccarthy/navigatorappt</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>https://ewokozwok.github.io/ACCESSLandingPage/ACCESS_Logo.png</t>
+  </si>
+  <si>
+    <t>Clare is a doctoral student in the Counseling Psychology program at UAlbany. She received her master’s degree in Psychology in Education (M.A.) from Teachers College, Columbia University with a dual focus in global mental health &amp; trauma, and sexuality, women, &amp; gender. She earned her bachelor’s degree in theater with a minor in religion from Vassar College.
+Clare’s research interests include suicide prevention and crisis intervention for high-risk populations. She is particularly interested in making care timely, inclusive, and relevant.
+Prior to returning to school, Clare had a career in documentaries, and many of the films she worked on appeared on PBS. Clare is an avid rower, skater, and hiker.
+Pronouns: She/Her/Hers</t>
   </si>
 </sst>
 </file>
@@ -226,10 +232,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -567,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,6 +663,9 @@
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\ACCESSLandingPage\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7C096A-31F9-4956-B2CA-1A464E3A1694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F7C9B2-DF90-4327-ACE6-53E8DC9D5570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3005" yWindow="-10890" windowWidth="19380" windowHeight="10260" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,12 +137,6 @@
 Pronouns: She/her/hers </t>
   </si>
   <si>
-    <t xml:space="preserve">Mikhaela is a third-year student in the Counseling Psychology doctoral program at UAlbany. She was born and raised in Connecticut where she earned her bachelor's in psychology from Western Connecticut State University.  
-Broadly, her research interests include health psychology and the intersection between mental and physical health. She is especially interested in reproductive health, patient-provider relationships and examining barriers to care. 
-Mikhaela enjoys reading, visiting museums, crafting and going on walks with her dog, Teddy. 
-Pronouns: She/her/hers </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chioma is a master’s student in mental health counseling program at UAlbany. She has research experience in cognitive and social psychology.  
 Chioma has a wide range of research interests, such as the impact of restrictive gender roles on self-actualization, hustle culture's impact on dimensions of self-care, and cultural retention among Igbo/African immigrants in the United States. 
 Chioma promotes her well-being through creative writing, music, socializing and engaging in new experiences. 
@@ -182,6 +176,12 @@
 Clare’s research interests include suicide prevention and crisis intervention for high-risk populations. She is particularly interested in making care timely, inclusive, and relevant.
 Prior to returning to school, Clare had a career in documentaries, and many of the films she worked on appeared on PBS. Clare is an avid rower, skater, and hiker.
 Pronouns: She/Her/Hers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikhaela is a doctoral student in the Counseling Psychology doctoral program at UAlbany. She was born and raised in Connecticut where she earned her bachelor's in psychology from Western Connecticut State University.  
+Broadly, her research interests include health psychology and the intersection between mental and physical health. She is especially interested in reproductive health, patient-provider relationships and examining barriers to care. 
+Mikhaela enjoys reading, visiting museums, crafting and going on walks with her dog, Teddy. 
+Pronouns: She/her/hers </t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,8 +621,8 @@
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -636,7 +636,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -663,8 +663,8 @@
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
+      <c r="D6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -678,7 +678,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -692,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -706,18 +706,18 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F7C9B2-DF90-4327-ACE6-53E8DC9D5570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503F1A8-3C2B-460D-85DC-4F61615B6D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
@@ -122,7 +122,42 @@
     <t>NavDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Evan is a student in the Counseling Psychology doctoral program at UAlbany.  
+    <t>Patrik is a student in the Counseling Psychology doctoral program at UAlbany. He received his master's degree (MA) in Clinical &amp; Counseling Psychology from William Paterson University in 2023. He received his bachelor's degree (BS) in Psychology from Clarkson University in 2021.
+In addition to his education, Patrik has spent many years answering crisis calls and texts for 988 or answering calls for a different local suicide prevention hotline. He has also spent time as a therapist in training, primarily serving LGBTQ+ folks.
+His primary research interests focus on mental health issues faced by LGBTQ+ folks, with a further focus on transgender and gender-nonconforming people. Patrik has taken part in research seeking novel ways to reduce gender dysphoria, such as investigating the impacts that tabletop role-playing games, like Dungeons and Dragons, has on transgender and gender-nonconforming players. He is also interested in understanding the unique needs that LGBTQ+ folks have when seeking mental health services.
+In his free time, Patrik enjoys reading, spending time in nature, playing board games, and cooking. 
+Pronouns: He/him/his</t>
+  </si>
+  <si>
+    <t>Choose a Navigator</t>
+  </si>
+  <si>
+    <t>Choose a navigator to view their bio and schedule an appointment!</t>
+  </si>
+  <si>
+    <t>https://ewokozwok.github.io/ACCESSLandingPage/ACCESS_Logo.png</t>
+  </si>
+  <si>
+    <t>Clare is a doctoral student in the Counseling Psychology program at UAlbany. She received her master’s degree in Psychology in Education (M.A.) from Teachers College, Columbia University with a dual focus in global mental health &amp; trauma, and sexuality, women, &amp; gender. She earned her bachelor’s degree in theater with a minor in religion from Vassar College.
+Clare’s research interests include suicide prevention and crisis intervention for high-risk populations. She is particularly interested in making care timely, inclusive, and relevant.
+Prior to returning to school, Clare had a career in documentaries, and many of the films she worked on appeared on PBS. Clare is an avid rower, skater, and hiker.
+Pronouns: She/Her/Hers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikhaela is a doctoral student in the Counseling Psychology doctoral program at UAlbany. She was born and raised in Connecticut where she earned her bachelor's in psychology from Western Connecticut State University.  
+Broadly, her research interests include health psychology and the intersection between mental and physical health. She is especially interested in reproductive health, patient-provider relationships and examining barriers to care. 
+Mikhaela enjoys reading, visiting museums, crafting and going on walks with her dog, Teddy. 
+Pronouns: She/her/hers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caroline is a doctoral student in the Counseling Psychology doctoral program at UAlbany. 
+She is interested in studying the individual factors that influence health outcomes for people living with serious illness or disability. Some of her other research interests include health disparities, health literacy, and the bidirectional relationship between mental and physical health.  
+Caroline earned her bachelor’s degree from UAlbany in 2018. After graduation, she interned at NYU Langone’s Rusk Rehabilitation Center, studying long-term outcomes for individuals who sustained a traumatic brain injury. She later worked on Alzheimer’s disease clinical trials as a research coordinator. 
+In her free time, Caroline enjoys watching movies, hiking, making and drinking good coffee, and spending time with her husband and their dog, Scupper. 
+Pronouns: She/her/hers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evan is a doctoral student in the Counseling Psychology doctoral program at UAlbany.  
 Evan previously worked for six years as an addiction recovery coach supporting individuals at all stages of recovery. After completing his master’s degree in mental health counseling, he worked as a recovery support navigator at the Center for Behavioral Health Promotion and Applied Research. 
 He is currently the Lead Prevention Navigator for Project ACCESS, a prevention service grant aimed at helping minoritized students navigate health and well-being resources on- and off-campus.  
 Evan’s research interests broadly focus on addiction and positive psychology. 
@@ -130,57 +165,22 @@
 Pronouns: He/him/his </t>
   </si>
   <si>
-    <t xml:space="preserve">Megan is a first-year student in the Counseling Psychology doctoral program at UAlbany. Megan graduated summa cum laude from Trinity College in 2019, with a bachelor’s in psychology and a minor in music.  
+    <t xml:space="preserve">Shea recently finished her master’s in the Mental Health Counseling program at UAlbany and will be starting as a doctoral student in the Counseling Psychology program this fall.
+Shea has experience researching diagnostic decisions in psychotherapy, health disparities and program evaluation. She is currently interested in researching factors that contribute to mental health treatment initiation and continuation, substance use, and crisis intervention and prevention in adolescents and emerging adults. 
+Shea practices self-care by reading, exercising, and spending time with her friends and family. When she’s not busy with work and school, Shea loves to spend time outdoors by going on hikes with her partner and the family dog. 
+Pronouns: She/her/hers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megan is a doctoral student in the Counseling Psychology doctoral program at UAlbany. Megan graduated summa cum laude from Trinity College in 2019, with a bachelor’s in psychology and a minor in music.  
 After graduating, Megan worked as a research assistant at Massachusetts General Hospital and McLean Hospital working on projects involving dual-diagnosis, mindfulness intervention and stress response in substance use disorders.  
 Her primary research interests are in the areas of substance use, prescription drug misuse, harm-reduction, and sexual and gender minority experiences of substance use. She is also interested in community education and intervention pertaining to substance use. 
 In her free time, Megan enjoys reading, rock climbing, photography, and spending time with friends and family. 
 Pronouns: She/her/hers </t>
   </si>
   <si>
-    <t xml:space="preserve">Chioma is a master’s student in mental health counseling program at UAlbany. She has research experience in cognitive and social psychology.  
+    <t xml:space="preserve">Chioma recently completed her master's in mental health counseling at UAlbany. She has research experience in cognitive and social psychology.  
 Chioma has a wide range of research interests, such as the impact of restrictive gender roles on self-actualization, hustle culture's impact on dimensions of self-care, and cultural retention among Igbo/African immigrants in the United States. 
 Chioma promotes her well-being through creative writing, music, socializing and engaging in new experiences. 
-Pronouns: She/her/hers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caroline is a second-year student in the Counseling Psychology doctoral program at UAlbany. 
-She is interested in studying the individual factors that influence health outcomes for people living with serious illness or disability. Some of her other research interests include health disparities, health literacy, and the bidirectional relationship between mental and physical health.  
-Caroline earned her bachelor’s degree from UAlbany in 2018. After graduation, she interned at NYU Langone’s Rusk Rehabilitation Center, studying long-term outcomes for individuals who sustained a traumatic brain injury. She later worked on Alzheimer’s disease clinical trials as a research coordinator. 
-In her free time, Caroline enjoys watching movies, hiking, making and drinking good coffee, and spending time with her husband and their dog, Scupper. 
-Pronouns: She/her/hers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shea is currently a master’s student in the Mental Health Counseling program at UAlbany. She graduated from Virginia Commonwealth University in 2021. 
-Shea has experience researching diagnostic decisions in psychotherapy, health disparities and program evaluation. She is currently interested in researching factors that contribute to mental health treatment initiation and continuation, substance use, and crisis intervention and prevention in adolescents and emerging adults. 
-Shea practices self-care by reading, exercising, and spending time with her friends and family. When she’s not busy with work and school, Shea loves to spend time outdoors by going on hikes with her partner and the family dog. 
-Pronouns: She/her/hers </t>
-  </si>
-  <si>
-    <t>Patrik is a student in the Counseling Psychology doctoral program at UAlbany. He received his master's degree (MA) in Clinical &amp; Counseling Psychology from William Paterson University in 2023. He received his bachelor's degree (BS) in Psychology from Clarkson University in 2021.
-In addition to his education, Patrik has spent many years answering crisis calls and texts for 988 or answering calls for a different local suicide prevention hotline. He has also spent time as a therapist in training, primarily serving LGBTQ+ folks.
-His primary research interests focus on mental health issues faced by LGBTQ+ folks, with a further focus on transgender and gender-nonconforming people. Patrik has taken part in research seeking novel ways to reduce gender dysphoria, such as investigating the impacts that tabletop role-playing games, like Dungeons and Dragons, has on transgender and gender-nonconforming players. He is also interested in understanding the unique needs that LGBTQ+ folks have when seeking mental health services.
-In his free time, Patrik enjoys reading, spending time in nature, playing board games, and cooking. 
-Pronouns: He/him/his</t>
-  </si>
-  <si>
-    <t>Choose a Navigator</t>
-  </si>
-  <si>
-    <t>Choose a navigator to view their bio and schedule an appointment!</t>
-  </si>
-  <si>
-    <t>https://ewokozwok.github.io/ACCESSLandingPage/ACCESS_Logo.png</t>
-  </si>
-  <si>
-    <t>Clare is a doctoral student in the Counseling Psychology program at UAlbany. She received her master’s degree in Psychology in Education (M.A.) from Teachers College, Columbia University with a dual focus in global mental health &amp; trauma, and sexuality, women, &amp; gender. She earned her bachelor’s degree in theater with a minor in religion from Vassar College.
-Clare’s research interests include suicide prevention and crisis intervention for high-risk populations. She is particularly interested in making care timely, inclusive, and relevant.
-Prior to returning to school, Clare had a career in documentaries, and many of the films she worked on appeared on PBS. Clare is an avid rower, skater, and hiker.
-Pronouns: She/Her/Hers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikhaela is a doctoral student in the Counseling Psychology doctoral program at UAlbany. She was born and raised in Connecticut where she earned her bachelor's in psychology from Western Connecticut State University.  
-Broadly, her research interests include health psychology and the intersection between mental and physical health. She is especially interested in reproductive health, patient-provider relationships and examining barriers to care. 
-Mikhaela enjoys reading, visiting museums, crafting and going on walks with her dog, Teddy. 
 Pronouns: She/her/hers </t>
   </si>
 </sst>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,8 +607,8 @@
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -621,8 +621,8 @@
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
+      <c r="D3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -635,8 +635,8 @@
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -649,8 +649,8 @@
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -664,7 +664,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -677,8 +677,8 @@
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -692,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -705,19 +705,19 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503F1A8-3C2B-460D-85DC-4F61615B6D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A4BFE6-3185-46E7-84DF-54A98EFE611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
+    <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="9970" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>https://calendly.com/mdmccarthy/navigatorappt</t>
   </si>
@@ -182,6 +182,33 @@
 Chioma has a wide range of research interests, such as the impact of restrictive gender roles on self-actualization, hustle culture's impact on dimensions of self-care, and cultural retention among Igbo/African immigrants in the United States. 
 Chioma promotes her well-being through creative writing, music, socializing and engaging in new experiences. 
 Pronouns: She/her/hers </t>
+  </si>
+  <si>
+    <t>Mikhaela</t>
+  </si>
+  <si>
+    <t>Chioma</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Shea</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Shortname</t>
+  </si>
+  <si>
+    <t>Meg</t>
   </si>
 </sst>
 </file>
@@ -232,11 +259,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,7 +609,7 @@
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -596,8 +622,11 @@
       <c r="D1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -607,11 +636,14 @@
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -624,8 +656,11 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -635,11 +670,14 @@
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -649,11 +687,14 @@
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -666,8 +707,11 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -677,11 +721,14 @@
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -694,8 +741,11 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -705,11 +755,14 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A4BFE6-3185-46E7-84DF-54A98EFE611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B2294-951D-4CB5-B597-B35378DF42C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="9970" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
@@ -171,13 +171,6 @@
 Pronouns: She/her/hers </t>
   </si>
   <si>
-    <t xml:space="preserve">Megan is a doctoral student in the Counseling Psychology doctoral program at UAlbany. Megan graduated summa cum laude from Trinity College in 2019, with a bachelor’s in psychology and a minor in music.  
-After graduating, Megan worked as a research assistant at Massachusetts General Hospital and McLean Hospital working on projects involving dual-diagnosis, mindfulness intervention and stress response in substance use disorders.  
-Her primary research interests are in the areas of substance use, prescription drug misuse, harm-reduction, and sexual and gender minority experiences of substance use. She is also interested in community education and intervention pertaining to substance use. 
-In her free time, Megan enjoys reading, rock climbing, photography, and spending time with friends and family. 
-Pronouns: She/her/hers </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chioma recently completed her master's in mental health counseling at UAlbany. She has research experience in cognitive and social psychology.  
 Chioma has a wide range of research interests, such as the impact of restrictive gender roles on self-actualization, hustle culture's impact on dimensions of self-care, and cultural retention among Igbo/African immigrants in the United States. 
 Chioma promotes her well-being through creative writing, music, socializing and engaging in new experiences. 
@@ -209,6 +202,10 @@
   </si>
   <si>
     <t>Meg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meg is a doctoral student in the Counseling Psychology program at UAlbany and has worked as a Prevention Navigator on Project ACCESS since the Fall of 2022. Meg is passionate about promoting harm reduction on UAlbany’s campus and providing students with a safe space to discuss their well-being. In her free time, Meg enjoys reading, rock climbing, photography, and spending time with friends and family.
+Pronouns: She/her/hers </t>
   </si>
 </sst>
 </file>
@@ -259,10 +256,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -600,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,7 +621,7 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -636,11 +634,11 @@
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -657,7 +655,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -671,10 +669,10 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -691,7 +689,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -708,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -725,7 +723,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -742,7 +740,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -759,7 +757,7 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B2294-951D-4CB5-B597-B35378DF42C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722E4623-5429-43E3-BC1F-F77934B5A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="9970" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
+    <workbookView xWindow="5000" yWindow="3130" windowWidth="15800" windowHeight="9970" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>https://d3v0px0pttie1i.cloudfront.net/uploads/user/logo/22392506/69b3965c.jpg</t>
   </si>
   <si>
-    <t>https://d3v0px0pttie1i.cloudfront.net/uploads/user/logo/33058265/0e3c2920.jpg</t>
-  </si>
-  <si>
     <t>https://d3v0px0pttie1i.cloudfront.net/uploads/user/avatar/33148423/912b7267.jpg</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   <si>
     <t xml:space="preserve">Meg is a doctoral student in the Counseling Psychology program at UAlbany and has worked as a Prevention Navigator on Project ACCESS since the Fall of 2022. Meg is passionate about promoting harm reduction on UAlbany’s campus and providing students with a safe space to discuss their well-being. In her free time, Meg enjoys reading, rock climbing, photography, and spending time with friends and family.
 Pronouns: She/her/hers </t>
+  </si>
+  <si>
+    <t>https:/ewokozwok.github.io/MassBaselineCleaner/gifs/headshot.jpg</t>
   </si>
 </sst>
 </file>
@@ -256,11 +256,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,7 +598,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,10 +617,10 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -634,11 +633,11 @@
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
+      <c r="D2" t="s">
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -652,10 +651,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -669,10 +668,10 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -683,13 +682,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -700,13 +699,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -717,13 +716,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -734,13 +733,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -754,21 +753,21 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722E4623-5429-43E3-BC1F-F77934B5A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8DA72-EFC1-415B-AA03-CE5DB435ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="3130" windowWidth="15800" windowHeight="9970" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
@@ -205,7 +205,7 @@
 Pronouns: She/her/hers </t>
   </si>
   <si>
-    <t>https:/ewokozwok.github.io/MassBaselineCleaner/gifs/headshot.jpg</t>
+    <t>https://i1.rgstatic.net/ii/profile.image/11431281259541204-1720551491155_Q128/Evan-Ozmat.jpg</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,7 +681,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D5" t="s">
@@ -774,6 +774,7 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{247B1786-4F62-47AF-9ABD-7AC2E334A711}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{C946ABD6-3E43-4343-8395-DBAA641100AE}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{368D76C5-F8E1-4F11-AA8E-B381A5DDA6C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8DA72-EFC1-415B-AA03-CE5DB435ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23746A8B-0347-4D27-B01D-51F97B2EC4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="3130" windowWidth="15800" windowHeight="9970" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
@@ -205,7 +205,7 @@
 Pronouns: She/her/hers </t>
   </si>
   <si>
-    <t>https://i1.rgstatic.net/ii/profile.image/11431281259541204-1720551491155_Q128/Evan-Ozmat.jpg</t>
+    <t>https://i.imgur.com/3yAiNGe.jpeg</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,7 +774,7 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{247B1786-4F62-47AF-9ABD-7AC2E334A711}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{C946ABD6-3E43-4343-8395-DBAA641100AE}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{368D76C5-F8E1-4F11-AA8E-B381A5DDA6C6}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{6E545EFC-75C5-4266-B880-D7B7DE65DACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23746A8B-0347-4D27-B01D-51F97B2EC4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA65D6-9252-4782-8B56-4918942E27AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="3130" windowWidth="15800" windowHeight="9970" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>https://calendly.com/mdmccarthy/navigatorappt</t>
   </si>
@@ -53,39 +53,12 @@
     <t>https://calendly.com/credden-projectaccess/navigatorappt</t>
   </si>
   <si>
-    <t>https://calendly.com/carolinerogers/navigatorappt</t>
-  </si>
-  <si>
-    <t>https://calendly.com/projectaccess-pat/navigatorappt</t>
-  </si>
-  <si>
     <t>https://calendly.com/swenzler/navigatorappt</t>
   </si>
   <si>
-    <t>Meg - (Mon,Tues, Thurs)</t>
-  </si>
-  <si>
     <t>Mikhaela - (Mon, Thurs)</t>
   </si>
   <si>
-    <t>Chioma - (Mon, Wed, Thurs)</t>
-  </si>
-  <si>
-    <t>Evan - (Mon, Wed, Fri)</t>
-  </si>
-  <si>
-    <t>Clare - (Tues, Wed, Thurs)</t>
-  </si>
-  <si>
-    <t>Caroline - (Mon, Tues, Fri)</t>
-  </si>
-  <si>
-    <t>Pat  - (Wed, Thurs)</t>
-  </si>
-  <si>
-    <t>Shea - (Tues, Fri)</t>
-  </si>
-  <si>
     <t>Navigator</t>
   </si>
   <si>
@@ -110,20 +83,7 @@
     <t>https://d3v0px0pttie1i.cloudfront.net/uploads/user/avatar/33148423/912b7267.jpg</t>
   </si>
   <si>
-    <t>https://d3v0px0pttie1i.cloudfront.net/uploads/user/avatar/33148510/eebc97bc.jpg</t>
-  </si>
-  <si>
-    <t>https://d3v0px0pttie1i.cloudfront.net/uploads/user/avatar/33148390/ae778bff.jpg</t>
-  </si>
-  <si>
     <t>NavDescription</t>
-  </si>
-  <si>
-    <t>Patrik is a student in the Counseling Psychology doctoral program at UAlbany. He received his master's degree (MA) in Clinical &amp; Counseling Psychology from William Paterson University in 2023. He received his bachelor's degree (BS) in Psychology from Clarkson University in 2021.
-In addition to his education, Patrik has spent many years answering crisis calls and texts for 988 or answering calls for a different local suicide prevention hotline. He has also spent time as a therapist in training, primarily serving LGBTQ+ folks.
-His primary research interests focus on mental health issues faced by LGBTQ+ folks, with a further focus on transgender and gender-nonconforming people. Patrik has taken part in research seeking novel ways to reduce gender dysphoria, such as investigating the impacts that tabletop role-playing games, like Dungeons and Dragons, has on transgender and gender-nonconforming players. He is also interested in understanding the unique needs that LGBTQ+ folks have when seeking mental health services.
-In his free time, Patrik enjoys reading, spending time in nature, playing board games, and cooking. 
-Pronouns: He/him/his</t>
   </si>
   <si>
     <t>Choose a Navigator</t>
@@ -144,13 +104,6 @@
     <t xml:space="preserve">Mikhaela is a doctoral student in the Counseling Psychology doctoral program at UAlbany. She was born and raised in Connecticut where she earned her bachelor's in psychology from Western Connecticut State University.  
 Broadly, her research interests include health psychology and the intersection between mental and physical health. She is especially interested in reproductive health, patient-provider relationships and examining barriers to care. 
 Mikhaela enjoys reading, visiting museums, crafting and going on walks with her dog, Teddy. 
-Pronouns: She/her/hers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caroline is a doctoral student in the Counseling Psychology doctoral program at UAlbany. 
-She is interested in studying the individual factors that influence health outcomes for people living with serious illness or disability. Some of her other research interests include health disparities, health literacy, and the bidirectional relationship between mental and physical health.  
-Caroline earned her bachelor’s degree from UAlbany in 2018. After graduation, she interned at NYU Langone’s Rusk Rehabilitation Center, studying long-term outcomes for individuals who sustained a traumatic brain injury. She later worked on Alzheimer’s disease clinical trials as a research coordinator. 
-In her free time, Caroline enjoys watching movies, hiking, making and drinking good coffee, and spending time with her husband and their dog, Scupper. 
 Pronouns: She/her/hers </t>
   </si>
   <si>
@@ -186,13 +139,7 @@
     <t>Clare</t>
   </si>
   <si>
-    <t>Caroline</t>
-  </si>
-  <si>
     <t>Shea</t>
-  </si>
-  <si>
-    <t>Pat</t>
   </si>
   <si>
     <t>Shortname</t>
@@ -206,6 +153,21 @@
   </si>
   <si>
     <t>https://i.imgur.com/3yAiNGe.jpeg</t>
+  </si>
+  <si>
+    <t>Meg - (Mon,Wed, Thurs)</t>
+  </si>
+  <si>
+    <t>Evan - (Mon, Wed, Thurs, Fri)</t>
+  </si>
+  <si>
+    <t>Chioma - (M-F)</t>
+  </si>
+  <si>
+    <t>Clare - (Tues, Thurs)</t>
+  </si>
+  <si>
+    <t>Shea - (Tues, Thurs)</t>
   </si>
 </sst>
 </file>
@@ -595,186 +557,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{247B1786-4F62-47AF-9ABD-7AC2E334A711}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{C946ABD6-3E43-4343-8395-DBAA641100AE}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{6E545EFC-75C5-4266-B880-D7B7DE65DACF}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{C946ABD6-3E43-4343-8395-DBAA641100AE}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{6E545EFC-75C5-4266-B880-D7B7DE65DACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA65D6-9252-4782-8B56-4918942E27AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76E0A85-668F-4DE1-A402-5574BA9C5564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
+    <workbookView xWindow="25490" yWindow="3480" windowWidth="19420" windowHeight="10300" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,12 +115,6 @@
 Pronouns: He/him/his </t>
   </si>
   <si>
-    <t xml:space="preserve">Shea recently finished her master’s in the Mental Health Counseling program at UAlbany and will be starting as a doctoral student in the Counseling Psychology program this fall.
-Shea has experience researching diagnostic decisions in psychotherapy, health disparities and program evaluation. She is currently interested in researching factors that contribute to mental health treatment initiation and continuation, substance use, and crisis intervention and prevention in adolescents and emerging adults. 
-Shea practices self-care by reading, exercising, and spending time with her friends and family. When she’s not busy with work and school, Shea loves to spend time outdoors by going on hikes with her partner and the family dog. 
-Pronouns: She/her/hers </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chioma recently completed her master's in mental health counseling at UAlbany. She has research experience in cognitive and social psychology.  
 Chioma has a wide range of research interests, such as the impact of restrictive gender roles on self-actualization, hustle culture's impact on dimensions of self-care, and cultural retention among Igbo/African immigrants in the United States. 
 Chioma promotes her well-being through creative writing, music, socializing and engaging in new experiences. 
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>Shea - (Tues, Thurs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shea is a current doctoral student in the Counseling Psychology program.
+Shea has experience researching diagnostic decisions in psychotherapy, health disparities and program evaluation. She is currently interested in researching factors that contribute to mental health treatment initiation and continuation, substance use, and crisis intervention and prevention in adolescents and emerging adults. 
+Shea practices self-care by reading, exercising, and spending time with her friends and family. When she’s not busy with work and school, Shea loves to spend time outdoors by going on hikes with her partner and the family dog. 
+Pronouns: She/her/hers </t>
   </si>
 </sst>
 </file>
@@ -218,10 +218,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -559,15 +562,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -584,12 +587,12 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -598,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -618,12 +621,12 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -632,32 +635,32 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -669,12 +672,12 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -682,11 +685,11 @@
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76E0A85-668F-4DE1-A402-5574BA9C5564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD23219-9B3B-41CC-8253-350F604E16B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="3480" windowWidth="19420" windowHeight="10300" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>https://calendly.com/mdmccarthy/navigatorappt</t>
   </si>
@@ -104,6 +104,61 @@
     <t xml:space="preserve">Mikhaela is a doctoral student in the Counseling Psychology doctoral program at UAlbany. She was born and raised in Connecticut where she earned her bachelor's in psychology from Western Connecticut State University.  
 Broadly, her research interests include health psychology and the intersection between mental and physical health. She is especially interested in reproductive health, patient-provider relationships and examining barriers to care. 
 Mikhaela enjoys reading, visiting museums, crafting and going on walks with her dog, Teddy. 
+Pronouns: She/her/hers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chioma recently completed her master's in mental health counseling at UAlbany. She has research experience in cognitive and social psychology.  
+Chioma has a wide range of research interests, such as the impact of restrictive gender roles on self-actualization, hustle culture's impact on dimensions of self-care, and cultural retention among Igbo/African immigrants in the United States. 
+Chioma promotes her well-being through creative writing, music, socializing and engaging in new experiences. 
+Pronouns: She/her/hers </t>
+  </si>
+  <si>
+    <t>Mikhaela</t>
+  </si>
+  <si>
+    <t>Chioma</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>Shea</t>
+  </si>
+  <si>
+    <t>Shortname</t>
+  </si>
+  <si>
+    <t>Meg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meg is a doctoral student in the Counseling Psychology program at UAlbany and has worked as a Prevention Navigator on Project ACCESS since the Fall of 2022. Meg is passionate about promoting harm reduction on UAlbany’s campus and providing students with a safe space to discuss their well-being. In her free time, Meg enjoys reading, rock climbing, photography, and spending time with friends and family.
+Pronouns: She/her/hers </t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3yAiNGe.jpeg</t>
+  </si>
+  <si>
+    <t>Meg - (Mon,Wed, Thurs)</t>
+  </si>
+  <si>
+    <t>Evan - (Mon, Wed, Thurs, Fri)</t>
+  </si>
+  <si>
+    <t>Chioma - (M-F)</t>
+  </si>
+  <si>
+    <t>Clare - (Tues, Thurs)</t>
+  </si>
+  <si>
+    <t>Shea - (Tues, Thurs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shea is a current doctoral student in the Counseling Psychology program.
+Shea has experience researching diagnostic decisions in psychotherapy, health disparities and program evaluation. She is currently interested in researching factors that contribute to mental health treatment initiation and continuation, substance use, and crisis intervention and prevention in adolescents and emerging adults. 
+Shea practices self-care by reading, exercising, and spending time with her friends and family. When she’s not busy with work and school, Shea loves to spend time outdoors by going on hikes with her partner and the family dog. 
 Pronouns: She/her/hers </t>
   </si>
   <si>
@@ -112,62 +167,26 @@
 He is currently the Lead Prevention Navigator for Project ACCESS, a prevention service grant aimed at helping minoritized students navigate health and well-being resources on- and off-campus.  
 Evan’s research interests broadly focus on addiction and positive psychology. 
 In his free time, you can find Evan hiking in the Catskills, snowboarding in Vermont or practicing meditation. 
-Pronouns: He/him/his </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chioma recently completed her master's in mental health counseling at UAlbany. She has research experience in cognitive and social psychology.  
-Chioma has a wide range of research interests, such as the impact of restrictive gender roles on self-actualization, hustle culture's impact on dimensions of self-care, and cultural retention among Igbo/African immigrants in the United States. 
-Chioma promotes her well-being through creative writing, music, socializing and engaging in new experiences. 
-Pronouns: She/her/hers </t>
-  </si>
-  <si>
-    <t>Mikhaela</t>
-  </si>
-  <si>
-    <t>Chioma</t>
-  </si>
-  <si>
-    <t>Evan</t>
-  </si>
-  <si>
-    <t>Clare</t>
-  </si>
-  <si>
-    <t>Shea</t>
-  </si>
-  <si>
-    <t>Shortname</t>
-  </si>
-  <si>
-    <t>Meg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meg is a doctoral student in the Counseling Psychology program at UAlbany and has worked as a Prevention Navigator on Project ACCESS since the Fall of 2022. Meg is passionate about promoting harm reduction on UAlbany’s campus and providing students with a safe space to discuss their well-being. In her free time, Meg enjoys reading, rock climbing, photography, and spending time with friends and family.
-Pronouns: She/her/hers </t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/3yAiNGe.jpeg</t>
-  </si>
-  <si>
-    <t>Meg - (Mon,Wed, Thurs)</t>
-  </si>
-  <si>
-    <t>Evan - (Mon, Wed, Thurs, Fri)</t>
-  </si>
-  <si>
-    <t>Chioma - (M-F)</t>
-  </si>
-  <si>
-    <t>Clare - (Tues, Thurs)</t>
-  </si>
-  <si>
-    <t>Shea - (Tues, Thurs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shea is a current doctoral student in the Counseling Psychology program.
-Shea has experience researching diagnostic decisions in psychotherapy, health disparities and program evaluation. She is currently interested in researching factors that contribute to mental health treatment initiation and continuation, substance use, and crisis intervention and prevention in adolescents and emerging adults. 
-Shea practices self-care by reading, exercising, and spending time with her friends and family. When she’s not busy with work and school, Shea loves to spend time outdoors by going on hikes with her partner and the family dog. 
-Pronouns: She/her/hers </t>
+Pronouns: He/him/his
+</t>
+  </si>
+  <si>
+    <t>Virtual Appointments are on THURSDAYS ONLY (Video on is required)</t>
+  </si>
+  <si>
+    <t>Virtual Appointments are on MONDAYS &amp; THURSDAYS ONLY (Video on is required)</t>
+  </si>
+  <si>
+    <t>Virtual Appointments are on WEDNESDAYS ONLY (Video on is required)</t>
+  </si>
+  <si>
+    <t>Virtual Appointments are on TUESDAYS ONLY (Video on is required)</t>
+  </si>
+  <si>
+    <t>Look below the Navigator's Bio for their availability for virtual appointments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Virtual Appointments Availabile </t>
   </si>
 </sst>
 </file>
@@ -560,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,7 +592,7 @@
     <col min="4" max="4" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -587,12 +606,12 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -601,13 +620,16 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -621,12 +643,15 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -635,32 +660,38 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -672,12 +703,15 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -686,13 +720,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -701,6 +738,9 @@
       </c>
       <c r="D8" t="s">
         <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD23219-9B3B-41CC-8253-350F604E16B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6839547C-927D-4810-B576-41A7C6B81D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,124 +609,124 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="261" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -745,8 +745,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{C946ABD6-3E43-4343-8395-DBAA641100AE}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{6E545EFC-75C5-4266-B880-D7B7DE65DACF}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{C946ABD6-3E43-4343-8395-DBAA641100AE}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{6E545EFC-75C5-4266-B880-D7B7DE65DACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6839547C-927D-4810-B576-41A7C6B81D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB1AE84-71B7-49DA-84DE-E959DDF347E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19110" windowHeight="12800" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,10 +183,10 @@
     <t>Virtual Appointments are on TUESDAYS ONLY (Video on is required)</t>
   </si>
   <si>
-    <t>Look below the Navigator's Bio for their availability for virtual appointments</t>
-  </si>
-  <si>
     <t xml:space="preserve">No Virtual Appointments Availabile </t>
+  </si>
+  <si>
+    <t>If a Navigator's schedule is booked, try another Navigator! Look below the Navigator's Bio for their availability for virtual appointments</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,7 +666,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -740,7 +740,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/navlinks.xlsx
+++ b/data-raw/navlinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB1AE84-71B7-49DA-84DE-E959DDF347E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D09045-BFD5-4649-B444-62638F03B8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19110" windowHeight="12800" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>https://calendly.com/mdmccarthy/navigatorappt</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>https://calendly.com/swenzler/navigatorappt</t>
-  </si>
-  <si>
-    <t>Mikhaela - (Mon, Thurs)</t>
   </si>
   <si>
     <t>Navigator</t>
@@ -188,12 +185,18 @@
   <si>
     <t>If a Navigator's schedule is booked, try another Navigator! Look below the Navigator's Bio for their availability for virtual appointments</t>
   </si>
+  <si>
+    <t>Mikhaela - (Mon, Wed)</t>
+  </si>
+  <si>
+    <t>VirtualInfo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,166 +584,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA84693-C709-49D2-A664-53B525EE7781}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="22.08203125" customWidth="1"/>
     <col min="4" max="4" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="261" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="252">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="168">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
